--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_0_22.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_0_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1456536.608943963</v>
+        <v>1454649.027427562</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>514798.6979006407</v>
+        <v>540176.8812859127</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>169.3371101986598</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>338.7946597086055</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>77.72878559814586</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>211.8375472652679</v>
       </c>
       <c r="H5" t="n">
-        <v>310.7998332191154</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,13 +953,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,31 +1096,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>99.66075074687603</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>88.85876175969196</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>11.97262119319231</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,7 +1148,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>33.04728899659204</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,28 +1333,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>53.80100608808073</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>78.9498252292655</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>79.80525340903503</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1579,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>19.45832445216804</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>123.3771255379762</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>55.0173691684554</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2011,7 +2011,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>163.8946345805327</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>241.5898867978942</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,16 +2248,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>71.42071436411354</v>
       </c>
       <c r="G22" t="n">
-        <v>79.47420870022039</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2299,10 +2299,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2476,10 +2476,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>3.295090184551618</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>224.1935651837708</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2722,13 +2722,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>132.5329629243045</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2773,13 +2773,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>135.2062270202406</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2801,16 +2801,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G29" t="n">
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>20.08741433067724</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>112.0435644700709</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965524</v>
+        <v>93.41221638965538</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801206</v>
+        <v>91.2307060180122</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437413</v>
+        <v>90.21779139437427</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897916</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571502</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523583</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550461</v>
+        <v>142.7175533550463</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700202</v>
+        <v>231.0340957700204</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>28.62173761767633</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3038,7 +3038,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G32" t="n">
         <v>411.9645167896915</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
-        <v>129.7889198539637</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T34" t="n">
         <v>153.4156709287486</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3436,13 +3436,13 @@
         <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
         <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385038</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3910,13 +3910,13 @@
         <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
         <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2118.304160219349</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="C2" t="n">
-        <v>1749.341643278937</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4346,34 +4346,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2471.072815489463</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="U2" t="n">
-        <v>2471.072815489463</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="V2" t="n">
-        <v>2471.072815489463</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W2" t="n">
-        <v>2118.304160219349</v>
+        <v>1629.057220972395</v>
       </c>
       <c r="X2" t="n">
-        <v>2118.304160219349</v>
+        <v>1255.591462711315</v>
       </c>
       <c r="Y2" t="n">
-        <v>2118.304160219349</v>
+        <v>865.4521307355029</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2627.754532504893</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>200.8329293182748</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C4" t="n">
-        <v>200.8329293182748</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D4" t="n">
-        <v>200.8329293182748</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
         <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>649.6150593598222</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="X4" t="n">
-        <v>421.6255084618049</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="Y4" t="n">
-        <v>200.8329293182748</v>
+        <v>667.7988452409105</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2105.048665729205</v>
+        <v>1760.851696582593</v>
       </c>
       <c r="C5" t="n">
-        <v>1736.086148788794</v>
+        <v>1391.889179642181</v>
       </c>
       <c r="D5" t="n">
-        <v>1736.086148788794</v>
+        <v>1391.889179642181</v>
       </c>
       <c r="E5" t="n">
-        <v>1350.297896190549</v>
+        <v>1006.100927043937</v>
       </c>
       <c r="F5" t="n">
-        <v>939.3119914009419</v>
+        <v>595.1150222543292</v>
       </c>
       <c r="G5" t="n">
-        <v>521.3481832991288</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4601,16 +4601,16 @@
         <v>2478.514423990285</v>
       </c>
       <c r="V5" t="n">
-        <v>2478.514423990285</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W5" t="n">
-        <v>2478.514423990285</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="X5" t="n">
-        <v>2105.048665729205</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="Y5" t="n">
-        <v>2105.048665729205</v>
+        <v>2147.451536646714</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417901</v>
@@ -4668,7 +4668,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>598.0446400632119</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U7" t="n">
-        <v>598.0446400632119</v>
+        <v>411.0644718652463</v>
       </c>
       <c r="V7" t="n">
-        <v>343.360151857325</v>
+        <v>411.0644718652463</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>411.0644718652463</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>411.0644718652463</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1964.838184214438</v>
+        <v>1253.251950079336</v>
       </c>
       <c r="C8" t="n">
-        <v>1595.875667274027</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D8" t="n">
-        <v>1595.875667274027</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2608.739301552158</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2608.739301552158</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2354.97751619025</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2354.97751619025</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>2354.97751619025</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X8" t="n">
-        <v>2354.97751619025</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y8" t="n">
-        <v>1964.838184214438</v>
+        <v>1639.851790143458</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4890,13 +4890,13 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>359.2080756496231</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610024</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V10" t="n">
-        <v>438.9553738610024</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W10" t="n">
-        <v>359.2080756496231</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X10" t="n">
-        <v>359.2080756496231</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>359.2080756496231</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,25 +5024,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5060,16 +5060,16 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5121,22 +5121,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K12" t="n">
-        <v>97.21709146028584</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L12" t="n">
-        <v>97.21709146028584</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="M12" t="n">
-        <v>671.9452708802633</v>
+        <v>1604.839867667473</v>
       </c>
       <c r="N12" t="n">
-        <v>1476.356849144414</v>
+        <v>1949.360523305091</v>
       </c>
       <c r="O12" t="n">
-        <v>2145.820610447073</v>
+        <v>2198.113937389053</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2380.757415002404</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>711.3743239205528</v>
+        <v>773.1661474848152</v>
       </c>
       <c r="C13" t="n">
-        <v>542.4381409926459</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="D13" t="n">
-        <v>542.4381409926459</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E13" t="n">
-        <v>394.5250474102528</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F13" t="n">
         <v>247.6350999123426</v>
@@ -5206,7 +5206,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>1020.446367141522</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W13" t="n">
-        <v>731.029197104561</v>
+        <v>954.8146123150549</v>
       </c>
       <c r="X13" t="n">
-        <v>711.3743239205529</v>
+        <v>954.8146123150549</v>
       </c>
       <c r="Y13" t="n">
-        <v>711.3743239205528</v>
+        <v>954.8146123150549</v>
       </c>
     </row>
     <row r="14">
@@ -5252,73 +5252,73 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5343,28 +5343,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
         <v>508.1073603047985</v>
       </c>
       <c r="L15" t="n">
-        <v>1122.004430061687</v>
+        <v>1079.287811648746</v>
       </c>
       <c r="M15" t="n">
-        <v>1442.339749591389</v>
+        <v>1847.655958041207</v>
       </c>
       <c r="N15" t="n">
         <v>2192.176613678825</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>861.4909633328895</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C16" t="n">
-        <v>692.5547804049826</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D16" t="n">
-        <v>542.4381409926468</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E16" t="n">
-        <v>394.5250474102537</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123425</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5440,7 +5440,7 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
         <v>779.063975947119</v>
@@ -5449,7 +5449,7 @@
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1374.292911428633</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>1150.507496218139</v>
       </c>
       <c r="U16" t="n">
-        <v>1098.712528333286</v>
+        <v>1150.507496218139</v>
       </c>
       <c r="V16" t="n">
-        <v>1098.712528333286</v>
+        <v>895.8230080122524</v>
       </c>
       <c r="W16" t="n">
-        <v>1043.139428163129</v>
+        <v>895.8230080122524</v>
       </c>
       <c r="X16" t="n">
-        <v>1043.139428163129</v>
+        <v>667.8334571142351</v>
       </c>
       <c r="Y16" t="n">
-        <v>1043.139428163129</v>
+        <v>447.040877970705</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,25 +5498,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5525,7 +5525,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5558,7 +5558,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5592,19 +5592,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>222.5746515181232</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>802.0403666355641</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M18" t="n">
-        <v>1570.408513028025</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N18" t="n">
-        <v>2374.820091292176</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O18" t="n">
         <v>2623.573505376138</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>711.072954880832</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="C19" t="n">
-        <v>542.1367719529251</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D19" t="n">
-        <v>392.0201325405893</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
         <v>97.21709146028584</v>
@@ -5686,37 +5686,37 @@
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.78763177146</v>
+        <v>1133.446124533523</v>
       </c>
       <c r="V19" t="n">
-        <v>955.1031435655736</v>
+        <v>1133.446124533523</v>
       </c>
       <c r="W19" t="n">
-        <v>711.072954880832</v>
+        <v>844.0289544965622</v>
       </c>
       <c r="X19" t="n">
-        <v>711.072954880832</v>
+        <v>616.0394035985448</v>
       </c>
       <c r="Y19" t="n">
-        <v>711.072954880832</v>
+        <v>395.2468244550147</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,40 +5735,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5829,19 +5829,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>711.1141612171745</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M21" t="n">
-        <v>1479.482307609636</v>
+        <v>2030.299435654558</v>
       </c>
       <c r="N21" t="n">
-        <v>2283.893885873787</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O21" t="n">
         <v>2623.573505376138</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>324.3840174432675</v>
+        <v>618.0053231677516</v>
       </c>
       <c r="C22" t="n">
-        <v>324.3840174432675</v>
+        <v>449.0691402398446</v>
       </c>
       <c r="D22" t="n">
-        <v>324.3840174432675</v>
+        <v>449.0691402398446</v>
       </c>
       <c r="E22" t="n">
-        <v>324.3840174432675</v>
+        <v>449.0691402398446</v>
       </c>
       <c r="F22" t="n">
-        <v>177.4940699453572</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5911,22 +5911,22 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L22" t="n">
         <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
         <v>1498.916270557902</v>
@@ -5938,22 +5938,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V22" t="n">
-        <v>1244.231782352015</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W22" t="n">
-        <v>954.8146123150547</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="X22" t="n">
-        <v>726.8250614170373</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="Y22" t="n">
-        <v>506.0324822735072</v>
+        <v>799.6537879979913</v>
       </c>
     </row>
     <row r="23">
@@ -5963,13 +5963,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
@@ -5978,7 +5978,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5987,10 +5987,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6005,10 +6005,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6020,16 +6020,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6066,28 +6066,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>381.3300194168668</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="M24" t="n">
-        <v>1149.698165809328</v>
+        <v>993.1218759632263</v>
       </c>
       <c r="N24" t="n">
-        <v>1954.109744073479</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="O24" t="n">
-        <v>2623.573505376138</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P24" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>245.130185042679</v>
+        <v>847.2212943649431</v>
       </c>
       <c r="C25" t="n">
-        <v>245.130185042679</v>
+        <v>678.2851114370362</v>
       </c>
       <c r="D25" t="n">
-        <v>245.130185042679</v>
+        <v>528.1684720247005</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>380.2553784423073</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>380.2553784423073</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>212.0800567621279</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,7 +6163,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
         <v>1498.916270557902</v>
@@ -6172,25 +6172,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.787631771461</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V25" t="n">
-        <v>983.3294851211871</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W25" t="n">
-        <v>693.9123150842264</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="X25" t="n">
-        <v>465.9227641862091</v>
+        <v>847.2212943649431</v>
       </c>
       <c r="Y25" t="n">
-        <v>245.130185042679</v>
+        <v>847.2212943649431</v>
       </c>
     </row>
     <row r="26">
@@ -6221,19 +6221,19 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
         <v>3183.709822619127</v>
@@ -6242,19 +6242,19 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
         <v>4262.357857465301</v>
@@ -6291,31 +6291,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K27" t="n">
-        <v>97.21709146028587</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L27" t="n">
-        <v>711.1141612171746</v>
+        <v>802.0403666355641</v>
       </c>
       <c r="M27" t="n">
-        <v>1479.482307609636</v>
+        <v>1570.408513028025</v>
       </c>
       <c r="N27" t="n">
-        <v>2283.893885873787</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>394.223678370532</v>
+        <v>549.3807322743208</v>
       </c>
       <c r="C28" t="n">
-        <v>394.223678370532</v>
+        <v>549.3807322743208</v>
       </c>
       <c r="D28" t="n">
-        <v>244.1070389581962</v>
+        <v>399.2640928619851</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581962</v>
+        <v>399.2640928619851</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>399.2640928619851</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>231.0887711818056</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6391,13 +6391,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1187.92115703528</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>1187.92115703528</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V28" t="n">
-        <v>933.2366688293932</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W28" t="n">
-        <v>796.6647223443017</v>
+        <v>731.0291971045606</v>
       </c>
       <c r="X28" t="n">
-        <v>796.6647223443017</v>
+        <v>731.0291971045606</v>
       </c>
       <c r="Y28" t="n">
-        <v>575.8721432007717</v>
+        <v>731.0291971045606</v>
       </c>
     </row>
     <row r="29">
@@ -6437,40 +6437,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
         <v>3183.709822619127</v>
@@ -6479,34 +6479,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6537,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>97.21709146028587</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>97.21709146028587</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M30" t="n">
-        <v>334.288126757867</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N30" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>600.4439501541572</v>
+        <v>750.8748194215261</v>
       </c>
       <c r="C31" t="n">
-        <v>487.2686325076211</v>
+        <v>637.6995017749899</v>
       </c>
       <c r="D31" t="n">
-        <v>392.9128583766562</v>
+        <v>543.3437276440249</v>
       </c>
       <c r="E31" t="n">
-        <v>300.7606300756338</v>
+        <v>451.1914993430024</v>
       </c>
       <c r="F31" t="n">
-        <v>209.6315478590944</v>
+        <v>360.0624171264624</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6479607276537</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>152.9908175569677</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864673</v>
+        <v>164.2510079864671</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933503</v>
+        <v>369.08763629335</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667512</v>
+        <v>671.4509053667507</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962054</v>
+        <v>997.6688721962049</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056075</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1791.966918252998</v>
+        <v>1736.652680096193</v>
       </c>
       <c r="T31" t="n">
-        <v>1623.942368323874</v>
+        <v>1736.652680096193</v>
       </c>
       <c r="U31" t="n">
-        <v>1390.574594818803</v>
+        <v>1503.284906591122</v>
       </c>
       <c r="V31" t="n">
-        <v>1191.650971894287</v>
+        <v>1304.361283666605</v>
       </c>
       <c r="W31" t="n">
-        <v>957.9946671386972</v>
+        <v>1070.704978911016</v>
       </c>
       <c r="X31" t="n">
-        <v>785.7659815220507</v>
+        <v>1041.794132832555</v>
       </c>
       <c r="Y31" t="n">
-        <v>620.7342676598915</v>
+        <v>876.7624189703952</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
         <v>1701.09316900344</v>
@@ -6689,7 +6689,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6698,19 +6698,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6780,22 +6780,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L33" t="n">
-        <v>97.21709146028584</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M33" t="n">
-        <v>334.288126757867</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N33" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108331</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G34" t="n">
         <v>221.5295092103129</v>
@@ -6853,40 +6853,40 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254952</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649686</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
         <v>1489.892037025262</v>
@@ -6901,7 +6901,7 @@
         <v>924.2611010045206</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="35">
@@ -6914,52 +6914,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6968,16 +6968,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7011,28 +7011,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>97.21709146028584</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M36" t="n">
-        <v>334.288126757867</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N36" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7078,7 +7078,7 @@
         <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F37" t="n">
         <v>320.8847398504512</v>
@@ -7117,7 +7117,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942116</v>
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7157,37 +7157,37 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823803</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.28419175141</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515099</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.70982261913</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
         <v>4454.632848899128</v>
@@ -7196,7 +7196,7 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231265</v>
@@ -7208,16 +7208,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,19 +7248,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028589</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>508.1073603047985</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>1122.004430061687</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M39" t="n">
-        <v>1890.372576454149</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7357,13 +7357,13 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
         <v>1304.027639859417</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045209</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010318</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7400,28 +7400,28 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643324</v>
@@ -7436,25 +7436,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7488,28 +7488,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>97.21709146028587</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>97.21709146028587</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M42" t="n">
-        <v>865.5852378527475</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N42" t="n">
-        <v>1210.105893490365</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O42" t="n">
-        <v>1879.569654793025</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C43" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982971</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028587</v>
@@ -7649,49 +7649,49 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7725,22 +7725,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>97.21709146028587</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>97.21709146028587</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M45" t="n">
-        <v>629.3975440735805</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N45" t="n">
-        <v>1433.809122337731</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O45" t="n">
-        <v>2103.272883640391</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P45" t="n">
         <v>2623.573505376138</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108325</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229666</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083199</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504506</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103131</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7804,13 +7804,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525398</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7822,34 +7822,34 @@
         <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010311</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8538,7 +8538,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516226</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8547,7 +8547,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8769,10 +8769,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8790,7 +8790,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9255,7 +9255,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -9480,7 +9480,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,25 +9717,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>464.0464718069329</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9951,10 +9951,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -10191,25 +10191,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>381.5997261417972</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,28 +10425,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>381.5997261417972</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,25 +10665,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>381.5997261417972</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10923,7 +10923,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11139,10 +11139,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11151,16 +11151,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11376,10 +11376,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11388,16 +11388,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>87.4415676895928</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>206.2513309368691</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23653,22 +23653,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>74.54368444562715</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>231.5056291681356</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,7 +23890,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,7 +23899,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23938,25 +23938,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>122.3427178180447</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>44.93311153869678</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24136,16 +24136,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>74.00033365881771</v>
       </c>
       <c r="G22" t="n">
-        <v>87.0193597631572</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -24187,10 +24187,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,10 +24364,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>145.6187381829845</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,25 +24412,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>27.94407814005723</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24610,13 +24610,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>16.38086544323141</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>151.3167713163504</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>104.5413092227029</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897901</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571487</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523568</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>166.3443044298323</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>141.8846611428038</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>938469.7433705016</v>
+        <v>938469.7433705017</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>938469.7433705017</v>
+        <v>938469.7433705018</v>
       </c>
     </row>
     <row r="10">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>451572.9734253559</v>
+        <v>451572.973425356</v>
       </c>
       <c r="C2" t="n">
         <v>451572.973425356</v>
@@ -26320,37 +26320,37 @@
         <v>451572.973425356</v>
       </c>
       <c r="E2" t="n">
-        <v>430131.9657114798</v>
+        <v>430131.9657114797</v>
       </c>
       <c r="F2" t="n">
         <v>430131.9657114797</v>
       </c>
       <c r="G2" t="n">
-        <v>430131.9657114795</v>
+        <v>430131.9657114798</v>
       </c>
       <c r="H2" t="n">
+        <v>430131.9657114798</v>
+      </c>
+      <c r="I2" t="n">
+        <v>430131.9657114798</v>
+      </c>
+      <c r="J2" t="n">
         <v>430131.9657114797</v>
       </c>
-      <c r="I2" t="n">
-        <v>430131.9657114797</v>
-      </c>
-      <c r="J2" t="n">
-        <v>430131.9657114796</v>
-      </c>
       <c r="K2" t="n">
-        <v>447504.3510797971</v>
+        <v>447504.3510797973</v>
       </c>
       <c r="L2" t="n">
-        <v>451572.9734253563</v>
+        <v>451572.9734253562</v>
       </c>
       <c r="M2" t="n">
-        <v>451572.9734253562</v>
+        <v>451572.9734253564</v>
       </c>
       <c r="N2" t="n">
         <v>451572.9734253563</v>
       </c>
       <c r="O2" t="n">
-        <v>451572.9734253561</v>
+        <v>451572.9734253563</v>
       </c>
       <c r="P2" t="n">
         <v>451572.9734253563</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284569</v>
+        <v>44162.60530284558</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086685</v>
+        <v>10342.90680086696</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
-        <v>1.11379904410569e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284569</v>
+        <v>44162.60530284556</v>
       </c>
     </row>
     <row r="4">
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="C4" t="n">
         <v>139059.139180619</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905759237</v>
+        <v>787.7936905758824</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758901</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="H4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="I4" t="n">
         <v>787.7936905758824</v>
       </c>
-      <c r="I4" t="n">
-        <v>787.7936905758695</v>
-      </c>
       <c r="J4" t="n">
-        <v>787.7936905758474</v>
+        <v>787.7936905759185</v>
       </c>
       <c r="K4" t="n">
         <v>18952.41620477239</v>
       </c>
       <c r="L4" t="n">
-        <v>23206.58093189635</v>
+        <v>23206.58093189637</v>
       </c>
       <c r="M4" t="n">
         <v>23206.58093189635</v>
       </c>
       <c r="N4" t="n">
-        <v>23206.58093189626</v>
+        <v>23206.58093189635</v>
       </c>
       <c r="O4" t="n">
-        <v>23206.58093189632</v>
+        <v>23206.58093189634</v>
       </c>
       <c r="P4" t="n">
         <v>23206.58093189634</v>
@@ -26467,22 +26467,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="F5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="F5" t="n">
-        <v>91987.32594871661</v>
-      </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
@@ -26491,19 +26491,19 @@
         <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022281</v>
+        <v>96628.20853022278</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002542</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
         <v>97715.1058200254</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-360313.123033217</v>
+        <v>-360313.1230332171</v>
       </c>
       <c r="C6" t="n">
         <v>229654.7561813275</v>
@@ -26528,28 +26528,28 @@
         <v>229654.7561813275</v>
       </c>
       <c r="E6" t="n">
-        <v>-187803.1904047087</v>
+        <v>-187900.6495306811</v>
       </c>
       <c r="F6" t="n">
-        <v>337356.8460721871</v>
+        <v>337259.386946215</v>
       </c>
       <c r="G6" t="n">
-        <v>337356.8460721871</v>
+        <v>337259.3869462151</v>
       </c>
       <c r="H6" t="n">
-        <v>337356.8460721872</v>
+        <v>337259.3869462151</v>
       </c>
       <c r="I6" t="n">
-        <v>337356.8460721872</v>
+        <v>337259.3869462151</v>
       </c>
       <c r="J6" t="n">
-        <v>160933.6268795941</v>
+        <v>160836.167753622</v>
       </c>
       <c r="K6" t="n">
-        <v>287761.1210419562</v>
+        <v>287742.6273040223</v>
       </c>
       <c r="L6" t="n">
-        <v>320308.3798725677</v>
+        <v>320308.3798725675</v>
       </c>
       <c r="M6" t="n">
         <v>195850.2714395974</v>
@@ -26558,10 +26558,10 @@
         <v>330651.2866734345</v>
       </c>
       <c r="O6" t="n">
-        <v>330651.2866734344</v>
+        <v>330651.2866734345</v>
       </c>
       <c r="P6" t="n">
-        <v>286488.6813705888</v>
+        <v>286488.681370589</v>
       </c>
     </row>
   </sheetData>
@@ -26710,7 +26710,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="L2" t="n">
         <v>68.13189012964067</v>
@@ -26725,7 +26725,7 @@
         <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="3">
@@ -26735,22 +26735,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
@@ -26759,25 +26759,25 @@
         <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26823,7 +26823,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108356</v>
+        <v>12.9286335010837</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855696</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855697</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>47.11121015899798</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>10.44630900880753</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,13 +27537,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>208.7942127384451</v>
+        <v>226.7961607607223</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>201.9466227555271</v>
       </c>
       <c r="H5" t="n">
-        <v>13.12293954524171</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27673,13 +27673,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27792,7 +27792,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>45.19995918853699</v>
@@ -27816,31 +27816,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>47.0044412332818</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>197.4231124822858</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>353.3002705778152</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>141.3684238123795</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,28 +28053,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>171.2340993700035</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>207.5731731073255</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28345,7 +28345,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29521,7 +29521,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855697</v>
       </c>
     </row>
     <row r="32">
@@ -29758,7 +29758,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>139.4326257134866</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>60.29709682323551</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31364,16 +31364,16 @@
         <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
-        <v>87.78329382423925</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>86.4344768999344</v>
       </c>
       <c r="N6" t="n">
         <v>211.31907117367</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31841,34 +31841,34 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>256.9624847376522</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>175.1732645054592</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32081,13 +32081,13 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>344.6639853288872</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>409.410311565473</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -32099,7 +32099,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>33.17612723677464</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,19 +32312,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>353.0329386354462</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -32339,10 +32339,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32549,22 +32549,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>425.8974584957645</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>91.84465193776708</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -32786,31 +32786,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>54.69678998811293</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
         <v>33.17612723677464</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,22 +33023,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>353.0329386354462</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>91.84465193776663</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -33050,10 +33050,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,37 +33260,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,16 +33436,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,37 +33497,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,25 +33646,25 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041499</v>
       </c>
       <c r="L35" t="n">
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,37 +33734,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.327311296122</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130947006</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>392.6063366508803</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -33995,13 +33995,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,25 +34120,25 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.796267130445</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,37 +34208,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>258.2029732896451</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446492</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>213.98498291272</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,10 +34533,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>323.9209869390935</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,16 +35012,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338903</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,16 +35258,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279164</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>580.5335145656338</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>245.2687781552868</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35729,13 +35729,13 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>576.9499508524722</v>
       </c>
       <c r="M15" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>757.4109738256932</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
         <v>251.2660748322851</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,22 +35960,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>585.3189041590311</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O18" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,22 +36197,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>749.4684883237461</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O21" t="n">
-        <v>343.1107267700522</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>286.9827555116979</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004661</v>
+        <v>321.9124378849146</v>
       </c>
       <c r="N24" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,19 +36674,19 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>585.3189041590311</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
-        <v>343.1107267700517</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>239.4656922197789</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412263</v>
+        <v>67.71102679412249</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584675</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084855</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075295</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491598</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403577</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043186</v>
+        <v>94.42895660043172</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,25 +37148,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>239.4656922197789</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>239.4656922197789</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37540,16 +37540,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415095</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37558,13 +37558,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q38" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
@@ -37628,10 +37628,10 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>740.6069989111005</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109082</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>348.0006622602202</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>442.691334515252</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,7 +37950,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38017,28 +38017,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,25 +38093,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>537.5560127407016</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415666</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178378</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714619</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L46" t="n">
         <v>318.3460770095692</v>
@@ -38184,13 +38184,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
